--- a/Versuche/Versuche.xlsx
+++ b/Versuche/Versuche.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\openfoam\GitRepo\wirbelrohrSimulation\Versuche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA783E7A-13D4-4CFE-A7FD-530816DF1D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DC2818-83F7-4B9B-AD64-6F6A010D68A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,87 +144,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -513,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,19 +451,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
         <v>4</v>
-      </c>
-      <c r="D1" s="5">
-        <v>8</v>
       </c>
       <c r="E1" s="5">
         <v>6</v>
       </c>
-      <c r="F1" s="6">
-        <v>3</v>
+      <c r="F1" s="5">
+        <v>8</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
@@ -553,11 +472,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
@@ -566,24 +484,24 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:F3" si="0">B7/(B7+B8)</f>
+        <f t="shared" ref="B3:E3" si="0">B7/(B7+B8)</f>
         <v>0.11275964391691394</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
+        <f>C7/(C7+C8)</f>
+        <v>0.11340206185567012</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D7/(D7+D8)</f>
         <v>0.1056910569105691</v>
-      </c>
-      <c r="D3" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>9.4339622641509441E-2</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11340206185567012</v>
+      <c r="F3" s="2" t="e">
+        <f>F7/(F7+F8)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -600,19 +518,19 @@
       </c>
       <c r="C4">
         <f>C7/(C5)/(C7/(C5)+C8/(C6))</f>
+        <v>0.1168794123939243</v>
+      </c>
+      <c r="D4">
+        <f>D7/(D5)/(D7/(D5)+D8/(D6))</f>
         <v>0.11032636555220139</v>
       </c>
-      <c r="D4" t="e">
-        <f t="shared" ref="D4:F4" si="1">D7/(D5)/(D7/(D5)+D8/(D6))</f>
+      <c r="E4">
+        <f t="shared" ref="E4" si="1">E7/(E5)/(E7/(E5)+E8/(E6))</f>
+        <v>0.10044492382364839</v>
+      </c>
+      <c r="F4" t="e">
+        <f>F7/(F5)/(F7/(F5)+F8/(F6))</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.10044492382364839</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.1168794123939243</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -627,15 +545,15 @@
         <v>291</v>
       </c>
       <c r="C5" s="2">
+        <v>288</v>
+      </c>
+      <c r="D5" s="2">
         <v>284</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>278</v>
       </c>
-      <c r="F5" s="2">
-        <v>288</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,10 +572,10 @@
       <c r="C6">
         <v>298</v>
       </c>
+      <c r="D6">
+        <v>298</v>
+      </c>
       <c r="E6">
-        <v>298</v>
-      </c>
-      <c r="F6">
         <v>298</v>
       </c>
       <c r="G6" t="s">
@@ -676,15 +594,15 @@
         <v>0.38</v>
       </c>
       <c r="C7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.65</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
@@ -695,13 +613,13 @@
         <v>2.99</v>
       </c>
       <c r="C8" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D8" s="3">
         <v>5.5</v>
       </c>
       <c r="E8" s="3">
         <v>9.6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.3</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -715,24 +633,24 @@
         <v>0.2</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:F9" si="2">B13/(B13+B14)</f>
+        <f t="shared" ref="B9:E9" si="2">B13/(B13+B14)</f>
         <v>0.20454545454545456</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
+        <f>C13/(C13+C14)</f>
+        <v>0.18976545842217488</v>
+      </c>
+      <c r="D9" s="2">
+        <f>D13/(D13+D14)</f>
         <v>0.2073170731707317</v>
-      </c>
-      <c r="D9" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
         <v>0.1932059447983015</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18976545842217488</v>
+      <c r="F9" s="2" t="e">
+        <f>F13/(F13+F14)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -748,20 +666,20 @@
         <v>0.21013587380915194</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:F10" si="3">C13/C11/(C13/C11+C14/C12)</f>
+        <f>C13/C11/(C13/C11+C14/C12)</f>
+        <v>0.19777777777777777</v>
+      </c>
+      <c r="D10">
+        <f>D13/D11/(D13/D11+D14/D12)</f>
         <v>0.2194536175322726</v>
       </c>
-      <c r="D10" t="e">
-        <f t="shared" si="3"/>
+      <c r="E10">
+        <f t="shared" ref="E10" si="3">E13/E11/(E13/E11+E14/E12)</f>
+        <v>0.2094313453536755</v>
+      </c>
+      <c r="F10" t="e">
+        <f>F13/F11/(F13/F11+F14/F12)</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0.2094313453536755</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0.19777777777777777</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -773,15 +691,15 @@
         <v>289</v>
       </c>
       <c r="C11" s="2">
+        <v>285</v>
+      </c>
+      <c r="D11" s="2">
         <v>280</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>273</v>
       </c>
-      <c r="F11" s="2">
-        <v>285</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,13 +710,13 @@
         <v>299</v>
       </c>
       <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
         <v>301</v>
       </c>
       <c r="E12">
         <v>302</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -810,15 +728,15 @@
         <v>0.72</v>
       </c>
       <c r="C13" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="D13" s="4">
         <v>1.36</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="4">
         <v>1.82</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.89</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
@@ -829,13 +747,13 @@
         <v>2.8</v>
       </c>
       <c r="C14" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D14" s="3">
         <v>5.2</v>
       </c>
       <c r="E14" s="3">
         <v>7.6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.8</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -846,24 +764,24 @@
         <v>0.3</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" ref="B15:F15" si="4">B19/(B19+B20)</f>
+        <f t="shared" ref="B15:E15" si="4">B19/(B19+B20)</f>
         <v>0.28358208955223885</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f>C19/(C19+C20)</f>
+        <v>0.28411633109619683</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D19/(D19+D20)</f>
         <v>0.30882352941176466</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29365079365079361</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="4"/>
         <v>0.30476190476190479</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.28411633109619683</v>
+        <f>F19/(F19+F20)</f>
+        <v>0.29365079365079361</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -876,20 +794,20 @@
         <v>0.29123237277743713</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:F16" si="5">C19/C17/(C19/C17+C20/C18)</f>
+        <f>C19/C17/(C19/C17+C20/C18)</f>
+        <v>0.29682343714815934</v>
+      </c>
+      <c r="D16">
+        <f>D19/D17/(D19/D17+D20/D18)</f>
         <v>0.32670979667282812</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
+      <c r="E16">
+        <f t="shared" ref="E16" si="5">E19/E17/(E19/E17+E20/E18)</f>
+        <v>0.33181342250143553</v>
+      </c>
+      <c r="F16">
+        <f>F19/F17/(F19/F17+F20/F18)</f>
         <v>0.32434755206692067</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>0.33181342250143553</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>0.29682343714815934</v>
       </c>
       <c r="G16" t="s">
         <v>1</v>
@@ -901,16 +819,16 @@
         <v>289</v>
       </c>
       <c r="C17" s="2">
+        <v>283</v>
+      </c>
+      <c r="D17" s="2">
         <v>279</v>
-      </c>
-      <c r="D17" s="2">
-        <v>265</v>
       </c>
       <c r="E17" s="2">
         <v>271</v>
       </c>
       <c r="F17" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>2</v>
@@ -922,16 +840,16 @@
         <v>300</v>
       </c>
       <c r="C18">
+        <v>301</v>
+      </c>
+      <c r="D18">
         <v>303</v>
-      </c>
-      <c r="D18">
-        <v>306</v>
       </c>
       <c r="E18">
         <v>307</v>
       </c>
       <c r="F18">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
@@ -943,16 +861,16 @@
         <v>0.95</v>
       </c>
       <c r="C19" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="D19" s="4">
         <v>2.1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.7</v>
       </c>
       <c r="E19" s="4">
         <v>3.2</v>
       </c>
-      <c r="F19" s="4">
-        <v>1.27</v>
+      <c r="F19" s="2">
+        <v>3.7</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -964,16 +882,16 @@
         <v>2.4</v>
       </c>
       <c r="C20" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D20" s="3">
         <v>4.7</v>
-      </c>
-      <c r="D20">
-        <v>8.9</v>
       </c>
       <c r="E20" s="3">
         <v>7.3</v>
       </c>
-      <c r="F20" s="3">
-        <v>3.2</v>
+      <c r="F20">
+        <v>8.9</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -984,24 +902,24 @@
         <v>0.4</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ref="B21:F21" si="6">B25/(B25+B26)</f>
+        <f t="shared" ref="B21:E21" si="6">B25/(B25+B26)</f>
         <v>0.39481268011527376</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f>C25/(C25+C26)</f>
+        <v>0.40594059405940591</v>
+      </c>
+      <c r="D21" s="2">
+        <f>D25/(D25+D26)</f>
         <v>0.40136054421768708</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>0.4157706093189964</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="6"/>
         <v>0.4107142857142857</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
-        <v>0.40594059405940591</v>
+        <f>F25/(F25+F26)</f>
+        <v>0.4157706093189964</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>
@@ -1014,20 +932,20 @@
         <v>0.40457386168532383</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:F22" si="7">C25/C23/(C25/C23+C26/C24)</f>
+        <f>C25/C23/(C25/C23+C26/C24)</f>
+        <v>0.42331204999320748</v>
+      </c>
+      <c r="D22">
+        <f>D25/D23/(D25/D23+D26/D24)</f>
         <v>0.42374313476975067</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="7"/>
+      <c r="E22">
+        <f t="shared" ref="E22" si="7">E25/E23/(E25/E23+E26/E24)</f>
+        <v>0.43787575150300606</v>
+      </c>
+      <c r="F22">
+        <f>F25/F23/(F25/F23+F26/F24)</f>
         <v>0.45920675614537776</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="7"/>
-        <v>0.43787575150300606</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="7"/>
-        <v>0.42331204999320748</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
@@ -1039,16 +957,16 @@
         <v>289</v>
       </c>
       <c r="C23" s="2">
+        <v>283</v>
+      </c>
+      <c r="D23" s="2">
         <v>279</v>
-      </c>
-      <c r="D23" s="2">
-        <v>264</v>
       </c>
       <c r="E23" s="2">
         <v>272</v>
       </c>
       <c r="F23" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>2</v>
@@ -1060,16 +978,16 @@
         <v>301</v>
       </c>
       <c r="C24">
+        <v>304</v>
+      </c>
+      <c r="D24">
         <v>306</v>
-      </c>
-      <c r="D24">
-        <v>315</v>
       </c>
       <c r="E24">
         <v>304</v>
       </c>
       <c r="F24">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
@@ -1081,16 +999,16 @@
         <v>1.37</v>
       </c>
       <c r="C25" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D25" s="4">
         <v>2.95</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5.8</v>
       </c>
       <c r="E25" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F25" s="4">
-        <v>2.0499999999999998</v>
+      <c r="F25" s="2">
+        <v>5.8</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
@@ -1102,16 +1020,16 @@
         <v>2.1</v>
       </c>
       <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="D26">
-        <v>8.15</v>
       </c>
       <c r="E26" s="3">
         <v>6.6</v>
       </c>
-      <c r="F26" s="3">
-        <v>3</v>
+      <c r="F26">
+        <v>8.15</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -1122,24 +1040,24 @@
         <v>0.5</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ref="B27:F27" si="8">B31/(B31+B32)</f>
+        <f t="shared" ref="B27:E27" si="8">B31/(B31+B32)</f>
         <v>0.50684931506849318</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="8"/>
+        <f>C31/(C31+C32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D31/(D31+D32)</f>
         <v>0.51369863013698636</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>0.49140893470790376</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="8"/>
         <v>0.50214592274678116</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>F31/(F31+F32)</f>
+        <v>0.49140893470790376</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>6</v>
@@ -1152,20 +1070,20 @@
         <v>0.51784224673278334</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:F28" si="9">C31/C29/(C31/C29+C32/C30)</f>
+        <f>C31/C29/(C31/C29+C32/C30)</f>
+        <v>0.51864406779661021</v>
+      </c>
+      <c r="D28">
+        <f>D31/D29/(D31/D29+D32/D30)</f>
         <v>0.5399568034557235</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="9"/>
+      <c r="E28">
+        <f t="shared" ref="E28" si="9">E31/E29/(E31/E29+E32/E30)</f>
+        <v>0.54020385050962627</v>
+      </c>
+      <c r="F28">
+        <f>F31/F29/(F31/F29+F32/F30)</f>
         <v>0.53986231401288032</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="9"/>
-        <v>0.54020385050962627</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="9"/>
-        <v>0.51864406779661021</v>
       </c>
       <c r="G28" t="s">
         <v>1</v>
@@ -1177,16 +1095,16 @@
         <v>289</v>
       </c>
       <c r="C29" s="2">
+        <v>284</v>
+      </c>
+      <c r="D29" s="2">
         <v>279</v>
-      </c>
-      <c r="D29" s="2">
-        <v>266</v>
       </c>
       <c r="E29" s="2">
         <v>273</v>
       </c>
       <c r="F29" s="2">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>2</v>
@@ -1198,16 +1116,16 @@
         <v>302</v>
       </c>
       <c r="C30">
+        <v>306</v>
+      </c>
+      <c r="D30">
         <v>310</v>
-      </c>
-      <c r="D30">
-        <v>323</v>
       </c>
       <c r="E30">
         <v>318</v>
       </c>
       <c r="F30">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
@@ -1219,16 +1137,16 @@
         <v>1.85</v>
       </c>
       <c r="C31" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="D31" s="4">
         <v>3.75</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.15</v>
       </c>
       <c r="E31" s="4">
         <v>5.85</v>
       </c>
-      <c r="F31" s="4">
-        <v>2.75</v>
+      <c r="F31" s="2">
+        <v>7.15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>4</v>
@@ -1240,16 +1158,16 @@
         <v>1.8</v>
       </c>
       <c r="C32" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="D32" s="3">
         <v>3.55</v>
-      </c>
-      <c r="D32">
-        <v>7.4</v>
       </c>
       <c r="E32" s="3">
         <v>5.8</v>
       </c>
-      <c r="F32" s="3">
-        <v>2.75</v>
+      <c r="F32">
+        <v>7.4</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -1260,24 +1178,24 @@
         <v>0.6</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ref="B33:F33" si="10">B37/(B37+B38)</f>
+        <f t="shared" ref="B33:E33" si="10">B37/(B37+B38)</f>
         <v>0.60810810810810811</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="10"/>
+        <f>C37/(C37+C38)</f>
+        <v>0.60714285714285721</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D37/(D37+D38)</f>
         <v>0.5934959349593496</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>0.60526315789473684</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="10"/>
         <v>0.59090909090909094</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="10"/>
-        <v>0.60714285714285721</v>
+        <f>F37/(F37+F38)</f>
+        <v>0.60526315789473684</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>6</v>
@@ -1290,20 +1208,20 @@
         <v>0.6192847442281576</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:F34" si="11">C37/C35/(C37/C35+C38/C36)</f>
+        <f>C37/C35/(C37/C35+C38/C36)</f>
+        <v>0.62700773349196903</v>
+      </c>
+      <c r="D34">
+        <f>D37/D35/(D37/D35+D38/D36)</f>
         <v>0.62007110097967377</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="11"/>
+      <c r="E34">
+        <f t="shared" ref="E34" si="11">E37/E35/(E37/E35+E38/E36)</f>
+        <v>0.63013698630136983</v>
+      </c>
+      <c r="F34">
+        <f>F37/F35/(F37/F35+F38/F36)</f>
         <v>0.65630323679727431</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="11"/>
-        <v>0.63013698630136983</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="11"/>
-        <v>0.62700773349196903</v>
       </c>
       <c r="G34" t="s">
         <v>1</v>
@@ -1315,16 +1233,16 @@
         <v>290</v>
       </c>
       <c r="C35" s="2">
+        <v>285</v>
+      </c>
+      <c r="D35" s="2">
         <v>280</v>
-      </c>
-      <c r="D35" s="2">
-        <v>269</v>
       </c>
       <c r="E35" s="2">
         <v>273</v>
       </c>
       <c r="F35" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>2</v>
@@ -1336,16 +1254,16 @@
         <v>304</v>
       </c>
       <c r="C36">
+        <v>310</v>
+      </c>
+      <c r="D36">
         <v>313</v>
-      </c>
-      <c r="D36">
-        <v>335</v>
       </c>
       <c r="E36">
         <v>322</v>
       </c>
       <c r="F36">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
@@ -1357,16 +1275,16 @@
         <v>2.25</v>
       </c>
       <c r="C37" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="D37" s="4">
         <v>4.38</v>
-      </c>
-      <c r="D37" s="2">
-        <v>9.1999999999999993</v>
       </c>
       <c r="E37" s="2">
         <v>6.5</v>
       </c>
-      <c r="F37" s="4">
-        <v>3.4</v>
+      <c r="F37" s="2">
+        <v>9.1999999999999993</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>4</v>
@@ -1378,16 +1296,16 @@
         <v>1.45</v>
       </c>
       <c r="C38" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D38" s="3">
         <v>3</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
       </c>
       <c r="E38">
         <v>4.5</v>
       </c>
-      <c r="F38" s="3">
-        <v>2.2000000000000002</v>
+      <c r="F38">
+        <v>6</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
@@ -1398,24 +1316,24 @@
         <v>0.7</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ref="B39:F39" si="12">B43/(B43+B44)</f>
+        <f t="shared" ref="B39:E39" si="12">B43/(B43+B44)</f>
         <v>0.69633507853403143</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="12"/>
+        <f>C43/(C43+C44)</f>
+        <v>0.68468468468468469</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D43/(D43+D44)</f>
         <v>0.7142857142857143</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="12"/>
-        <v>0.70512820512820518</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="12"/>
         <v>0.71100917431192656</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="12"/>
-        <v>0.68468468468468469</v>
+        <f>F43/(F43+F44)</f>
+        <v>0.70512820512820518</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>6</v>
@@ -1428,20 +1346,20 @@
         <v>0.707569804235196</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:F40" si="13">C43/C41/(C43/C41+C44/C42)</f>
+        <f>C43/C41/(C43/C41+C44/C42)</f>
+        <v>0.70455824423185143</v>
+      </c>
+      <c r="D40">
+        <f>D43/D41/(D43/D41+D44/D42)</f>
         <v>0.73997233748271096</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="13"/>
+      <c r="E40">
+        <f t="shared" ref="E40" si="13">E43/E41/(E43/E41+E44/E42)</f>
+        <v>0.7473286421683607</v>
+      </c>
+      <c r="F40">
+        <f>F43/F41/(F43/F41+F44/F42)</f>
         <v>0.74725274725274726</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0.7473286421683607</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="13"/>
-        <v>0.70455824423185143</v>
       </c>
       <c r="G40" t="s">
         <v>1</v>
@@ -1453,16 +1371,16 @@
         <v>290</v>
       </c>
       <c r="C41" s="2">
+        <v>285</v>
+      </c>
+      <c r="D41" s="2">
         <v>282</v>
-      </c>
-      <c r="D41" s="2">
-        <v>275</v>
       </c>
       <c r="E41" s="2">
         <v>277</v>
       </c>
       <c r="F41" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>2</v>
@@ -1474,16 +1392,16 @@
         <v>306</v>
       </c>
       <c r="C42">
+        <v>313</v>
+      </c>
+      <c r="D42">
         <v>321</v>
-      </c>
-      <c r="D42">
-        <v>340</v>
       </c>
       <c r="E42">
         <v>333</v>
       </c>
       <c r="F42">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
@@ -1495,16 +1413,16 @@
         <v>2.66</v>
       </c>
       <c r="C43" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D43" s="4">
         <v>5.5</v>
-      </c>
-      <c r="D43" s="2">
-        <v>11</v>
       </c>
       <c r="E43" s="2">
         <v>7.75</v>
       </c>
-      <c r="F43" s="4">
-        <v>3.8</v>
+      <c r="F43" s="2">
+        <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>4</v>
@@ -1516,16 +1434,16 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C44" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D44" s="3">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="D44">
-        <v>4.5999999999999996</v>
       </c>
       <c r="E44">
         <v>3.15</v>
       </c>
-      <c r="F44" s="3">
-        <v>1.75</v>
+      <c r="F44">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -1540,20 +1458,20 @@
         <v>0.81333333333333324</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ref="C45:F45" si="14">C49/(C49+C50)</f>
+        <f>C49/(C49+C50)</f>
+        <v>0.79225352112676062</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D49/(D49+D50)</f>
         <v>0.78947368421052633</v>
       </c>
-      <c r="D45" s="2">
-        <f t="shared" si="14"/>
+      <c r="E45" s="2">
+        <f t="shared" ref="E45" si="14">E49/(E49+E50)</f>
+        <v>0.80672268907563027</v>
+      </c>
+      <c r="F45" s="2">
+        <f>F49/(F49+F50)</f>
         <v>0.78136200716845883</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="14"/>
-        <v>0.80672268907563027</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="14"/>
-        <v>0.79225352112676062</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>6</v>
@@ -1566,20 +1484,20 @@
         <v>0.82132362615674748</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:F46" si="15">C49/C47/(C49/C47+C50/C48)</f>
+        <f>C49/C47/(C49/C47+C50/C48)</f>
+        <v>0.80706300353037019</v>
+      </c>
+      <c r="D46">
+        <f>D49/D47/(D49/D47+D50/D48)</f>
         <v>0.81047381546134667</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="15"/>
+      <c r="E46">
+        <f t="shared" ref="E46" si="15">E49/E47/(E49/E47+E50/E48)</f>
+        <v>0.83431179019150403</v>
+      </c>
+      <c r="F46">
+        <f>F49/F47/(F49/F47+F50/F48)</f>
         <v>0.81503298518655387</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="15"/>
-        <v>0.83431179019150403</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="15"/>
-        <v>0.80706300353037019</v>
       </c>
       <c r="G46" t="s">
         <v>1</v>
@@ -1591,16 +1509,16 @@
         <v>291</v>
       </c>
       <c r="C47" s="2">
+        <v>289</v>
+      </c>
+      <c r="D47" s="2">
         <v>285</v>
-      </c>
-      <c r="D47" s="2">
-        <v>279</v>
       </c>
       <c r="E47" s="2">
         <v>281</v>
       </c>
       <c r="F47" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>2</v>
@@ -1612,16 +1530,16 @@
         <v>307</v>
       </c>
       <c r="C48">
+        <v>317</v>
+      </c>
+      <c r="D48">
         <v>325</v>
-      </c>
-      <c r="D48">
-        <v>344</v>
       </c>
       <c r="E48" s="3">
         <v>339</v>
       </c>
       <c r="F48">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G48" t="s">
         <v>3</v>
@@ -1633,16 +1551,16 @@
         <v>3.05</v>
       </c>
       <c r="C49" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D49" s="4">
         <v>6</v>
-      </c>
-      <c r="D49" s="2">
-        <v>10.9</v>
       </c>
       <c r="E49" s="2">
         <v>9.6</v>
       </c>
-      <c r="F49" s="4">
-        <v>4.5</v>
+      <c r="F49" s="2">
+        <v>10.9</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>4</v>
@@ -1654,16 +1572,16 @@
         <v>0.7</v>
       </c>
       <c r="C50" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="D50" s="3">
         <v>1.6</v>
-      </c>
-      <c r="D50">
-        <v>3.05</v>
       </c>
       <c r="E50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F50" s="3">
-        <v>1.18</v>
+      <c r="F50">
+        <v>3.05</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
@@ -1674,24 +1592,24 @@
         <v>0.9</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" ref="B51:F51" si="16">B55/(B55+B56)</f>
+        <f t="shared" ref="B51:E51" si="16">B55/(B55+B56)</f>
         <v>0.86387434554973819</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="16"/>
+        <f>C55/(C55+C56)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="D51" s="2">
+        <f>D55/(D55+D56)</f>
         <v>0.88961038961038963</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="16"/>
-        <v>0.89619600257898135</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="16"/>
         <v>0.90212765957446805</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="16"/>
-        <v>0.90909090909090906</v>
+        <f>F55/(F55+F56)</f>
+        <v>0.89619600257898135</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>6</v>
@@ -1704,20 +1622,20 @@
         <v>0.87002670684105998</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:F52" si="17">C55/C53/(C55/C53+C56/C54)</f>
+        <f>C55/C53/(C55/C53+C56/C54)</f>
+        <v>0.91642651296829969</v>
+      </c>
+      <c r="D52">
+        <f>D55/D53/(D55/D53+D56/D54)</f>
         <v>0.90178751157453996</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="17"/>
+      <c r="E52">
+        <f t="shared" ref="E52" si="17">E55/E53/(E55/E53+E56/E54)</f>
+        <v>0.91792069077387628</v>
+      </c>
+      <c r="F52">
+        <f>F55/F53/(F55/F53+F56/F54)</f>
         <v>0.91363770294875379</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="17"/>
-        <v>0.91792069077387628</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="17"/>
-        <v>0.91642651296829969</v>
       </c>
       <c r="G52" t="s">
         <v>1</v>
@@ -1729,16 +1647,16 @@
         <v>292</v>
       </c>
       <c r="C53" s="2">
+        <v>290</v>
+      </c>
+      <c r="D53" s="2">
         <v>287</v>
-      </c>
-      <c r="D53" s="2">
-        <v>284</v>
       </c>
       <c r="E53" s="2">
         <v>286</v>
       </c>
       <c r="F53" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>2</v>
@@ -1750,16 +1668,16 @@
         <v>308</v>
       </c>
       <c r="C54">
+        <v>318</v>
+      </c>
+      <c r="D54">
         <v>327</v>
-      </c>
-      <c r="D54">
-        <v>348</v>
       </c>
       <c r="E54">
         <v>347</v>
       </c>
       <c r="F54">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="G54" t="s">
         <v>3</v>
@@ -1771,16 +1689,16 @@
         <v>3.3</v>
       </c>
       <c r="C55" s="4">
+        <v>5</v>
+      </c>
+      <c r="D55" s="4">
         <v>6.85</v>
-      </c>
-      <c r="D55" s="2">
-        <v>13.9</v>
       </c>
       <c r="E55" s="2">
         <v>10.6</v>
       </c>
-      <c r="F55" s="4">
-        <v>5</v>
+      <c r="F55" s="2">
+        <v>13.9</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>4</v>
@@ -1792,16 +1710,16 @@
         <v>0.52</v>
       </c>
       <c r="C56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="3">
         <v>0.85</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.61</v>
       </c>
       <c r="E56">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F56" s="3">
-        <v>0.5</v>
+      <c r="F56" s="2">
+        <v>1.61</v>
       </c>
       <c r="G56" t="s">
         <v>5</v>
@@ -1829,7 +1747,16 @@
       <c r="A62" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A45:A50"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="A57:A62"/>
@@ -1839,59 +1766,9 @@
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A39:A44"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:F10">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:F16">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:F22">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F46">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:F52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B4:F4 B10:F10 B16:F16 B22:F22 B28:F28 B34:F34 B40:F40 B46:F46 B52:F52">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
